--- a/GPRO_QMS_Web/obj/Debug/Package/PackageTmp/Report Template/Mau_DV_CT.xlsx
+++ b/GPRO_QMS_Web/obj/Debug/Package/PackageTmp/Report Template/Mau_DV_CT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GPRO_2018\App\QMS\GPRO_QMS_Web\GPRO_QMS_Web\Report Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$4:$K$2871</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -240,7 +235,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Thời gian sau trước sửa chữa (phút)</t>
+      <t>Thời gian sau sửa chữa (phút)</t>
     </r>
     <r>
       <rPr>
@@ -767,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,28 +775,28 @@
   </sheetPr>
   <dimension ref="A1:N935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="65" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -816,7 +811,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -831,7 +826,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -844,7 +839,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -879,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -895,7 +890,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -911,7 +906,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -927,7 +922,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -943,7 +938,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -956,7 +951,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -969,7 +964,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -982,7 +977,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -995,7 +990,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1008,7 +1003,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1021,7 +1016,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1034,7 +1029,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1047,7 +1042,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1060,7 +1055,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1073,7 +1068,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1086,7 +1081,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1099,7 +1094,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1112,7 +1107,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -1125,7 +1120,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1138,7 +1133,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1151,7 +1146,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -1164,7 +1159,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -1177,7 +1172,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1190,7 +1185,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1203,7 +1198,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1216,7 +1211,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1229,7 +1224,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -1242,7 +1237,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1255,7 +1250,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1268,7 +1263,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1281,7 +1276,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1294,7 +1289,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -1307,7 +1302,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -1320,7 +1315,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -1333,7 +1328,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1346,7 +1341,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1359,7 +1354,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1372,7 +1367,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1385,7 +1380,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -1398,7 +1393,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -1411,7 +1406,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -1424,7 +1419,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -1437,7 +1432,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -1450,7 +1445,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -1463,7 +1458,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -1476,7 +1471,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -1489,7 +1484,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -1502,7 +1497,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -1515,7 +1510,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -1528,7 +1523,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -1541,7 +1536,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -1554,7 +1549,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -1567,7 +1562,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -1580,7 +1575,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -1593,7 +1588,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -1606,7 +1601,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -1619,7 +1614,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -1632,7 +1627,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -1645,7 +1640,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -1658,7 +1653,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -1671,7 +1666,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -1684,7 +1679,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -1697,7 +1692,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -1710,7 +1705,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -1723,7 +1718,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -1736,7 +1731,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -1749,7 +1744,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -1762,7 +1757,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -1775,7 +1770,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -1788,7 +1783,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -1801,7 +1796,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -1814,7 +1809,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -1827,7 +1822,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -1840,7 +1835,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -1853,7 +1848,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -1866,7 +1861,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -1879,7 +1874,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -1892,7 +1887,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -1905,7 +1900,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -1918,7 +1913,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -1931,7 +1926,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -1944,7 +1939,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -1957,7 +1952,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -1970,7 +1965,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -1983,7 +1978,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -1996,7 +1991,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -2009,7 +2004,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -2022,7 +2017,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -2035,7 +2030,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -2048,7 +2043,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -2061,7 +2056,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -2074,7 +2069,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -2087,7 +2082,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -2100,7 +2095,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -2113,7 +2108,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -2126,7 +2121,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -2139,7 +2134,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -2152,7 +2147,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -2165,7 +2160,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -2178,7 +2173,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -2191,7 +2186,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -2204,7 +2199,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -2217,7 +2212,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -2230,7 +2225,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -2243,7 +2238,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -2256,7 +2251,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -2269,7 +2264,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -2282,7 +2277,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -2295,7 +2290,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -2308,7 +2303,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -2321,7 +2316,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -2334,7 +2329,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -2347,7 +2342,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -2360,7 +2355,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -2373,7 +2368,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -2386,7 +2381,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -2399,7 +2394,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -2412,7 +2407,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -2425,7 +2420,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -2438,7 +2433,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -2451,7 +2446,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -2464,7 +2459,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -2477,7 +2472,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -2490,7 +2485,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -2503,7 +2498,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -2516,7 +2511,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -2529,7 +2524,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -2542,7 +2537,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -2555,7 +2550,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -2568,7 +2563,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -2581,7 +2576,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -2594,7 +2589,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -2607,7 +2602,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -2620,7 +2615,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -2633,7 +2628,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -2646,7 +2641,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -2659,7 +2654,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -2672,7 +2667,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -2685,7 +2680,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -2698,7 +2693,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -2711,7 +2706,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -2724,7 +2719,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -2737,7 +2732,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -2750,7 +2745,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -2763,7 +2758,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -2776,7 +2771,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -2789,7 +2784,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -2802,7 +2797,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -2815,7 +2810,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -2828,7 +2823,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -2841,7 +2836,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -2854,7 +2849,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -2867,7 +2862,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -2880,7 +2875,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -2893,7 +2888,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -2906,7 +2901,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -2919,7 +2914,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -2932,7 +2927,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -2945,7 +2940,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -2958,7 +2953,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -2971,7 +2966,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -2984,7 +2979,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -2997,7 +2992,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -3010,7 +3005,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -3023,7 +3018,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -3036,7 +3031,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -3049,7 +3044,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -3062,7 +3057,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -3075,7 +3070,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -3088,7 +3083,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -3101,7 +3096,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -3114,7 +3109,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -3127,7 +3122,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -3140,7 +3135,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -3153,7 +3148,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -3166,7 +3161,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -3179,7 +3174,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -3192,7 +3187,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -3205,7 +3200,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -3218,7 +3213,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -3231,7 +3226,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -3244,7 +3239,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -3257,7 +3252,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -3270,7 +3265,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -3283,7 +3278,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -3296,7 +3291,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -3309,7 +3304,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -3322,7 +3317,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -3335,7 +3330,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -3348,7 +3343,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -3361,7 +3356,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -3374,7 +3369,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -3387,7 +3382,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -3400,7 +3395,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -3413,7 +3408,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -3426,7 +3421,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -3439,7 +3434,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -3452,7 +3447,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -3465,7 +3460,7 @@
       <c r="J202" s="7"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -3478,7 +3473,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -3491,7 +3486,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -3504,7 +3499,7 @@
       <c r="J205" s="7"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -3517,7 +3512,7 @@
       <c r="J206" s="7"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -3530,7 +3525,7 @@
       <c r="J207" s="7"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -3543,7 +3538,7 @@
       <c r="J208" s="7"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -3556,7 +3551,7 @@
       <c r="J209" s="7"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -3569,7 +3564,7 @@
       <c r="J210" s="7"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -3582,7 +3577,7 @@
       <c r="J211" s="7"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -3595,7 +3590,7 @@
       <c r="J212" s="7"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -3608,7 +3603,7 @@
       <c r="J213" s="7"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -3621,7 +3616,7 @@
       <c r="J214" s="7"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -3634,7 +3629,7 @@
       <c r="J215" s="7"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -3647,7 +3642,7 @@
       <c r="J216" s="7"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -3660,7 +3655,7 @@
       <c r="J217" s="7"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -3673,7 +3668,7 @@
       <c r="J218" s="7"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -3686,7 +3681,7 @@
       <c r="J219" s="7"/>
       <c r="K219" s="6"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -3699,7 +3694,7 @@
       <c r="J220" s="7"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -3712,7 +3707,7 @@
       <c r="J221" s="7"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -3725,7 +3720,7 @@
       <c r="J222" s="7"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -3738,7 +3733,7 @@
       <c r="J223" s="7"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -3751,7 +3746,7 @@
       <c r="J224" s="7"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -3764,7 +3759,7 @@
       <c r="J225" s="7"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -3777,7 +3772,7 @@
       <c r="J226" s="7"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -3790,7 +3785,7 @@
       <c r="J227" s="7"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -3803,7 +3798,7 @@
       <c r="J228" s="7"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -3816,7 +3811,7 @@
       <c r="J229" s="7"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -3829,7 +3824,7 @@
       <c r="J230" s="7"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -3842,7 +3837,7 @@
       <c r="J231" s="7"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -3855,7 +3850,7 @@
       <c r="J232" s="7"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -3868,7 +3863,7 @@
       <c r="J233" s="7"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -3881,7 +3876,7 @@
       <c r="J234" s="7"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -3894,7 +3889,7 @@
       <c r="J235" s="7"/>
       <c r="K235" s="6"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -3907,7 +3902,7 @@
       <c r="J236" s="7"/>
       <c r="K236" s="6"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -3920,7 +3915,7 @@
       <c r="J237" s="7"/>
       <c r="K237" s="6"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -3933,7 +3928,7 @@
       <c r="J238" s="7"/>
       <c r="K238" s="6"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -3946,7 +3941,7 @@
       <c r="J239" s="7"/>
       <c r="K239" s="6"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -3959,7 +3954,7 @@
       <c r="J240" s="7"/>
       <c r="K240" s="6"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -3972,7 +3967,7 @@
       <c r="J241" s="7"/>
       <c r="K241" s="6"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -3985,7 +3980,7 @@
       <c r="J242" s="7"/>
       <c r="K242" s="6"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -3998,7 +3993,7 @@
       <c r="J243" s="7"/>
       <c r="K243" s="6"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -4011,7 +4006,7 @@
       <c r="J244" s="7"/>
       <c r="K244" s="6"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -4024,7 +4019,7 @@
       <c r="J245" s="7"/>
       <c r="K245" s="6"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -4037,7 +4032,7 @@
       <c r="J246" s="7"/>
       <c r="K246" s="6"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -4050,7 +4045,7 @@
       <c r="J247" s="7"/>
       <c r="K247" s="6"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -4063,7 +4058,7 @@
       <c r="J248" s="7"/>
       <c r="K248" s="6"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -4076,7 +4071,7 @@
       <c r="J249" s="7"/>
       <c r="K249" s="6"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -4089,7 +4084,7 @@
       <c r="J250" s="7"/>
       <c r="K250" s="6"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
@@ -4102,7 +4097,7 @@
       <c r="J251" s="7"/>
       <c r="K251" s="6"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
@@ -4115,7 +4110,7 @@
       <c r="J252" s="7"/>
       <c r="K252" s="6"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
@@ -4128,7 +4123,7 @@
       <c r="J253" s="7"/>
       <c r="K253" s="6"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -4141,7 +4136,7 @@
       <c r="J254" s="7"/>
       <c r="K254" s="6"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
@@ -4154,7 +4149,7 @@
       <c r="J255" s="7"/>
       <c r="K255" s="6"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
@@ -4167,7 +4162,7 @@
       <c r="J256" s="7"/>
       <c r="K256" s="6"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -4180,7 +4175,7 @@
       <c r="J257" s="7"/>
       <c r="K257" s="6"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -4193,7 +4188,7 @@
       <c r="J258" s="7"/>
       <c r="K258" s="6"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
@@ -4206,7 +4201,7 @@
       <c r="J259" s="7"/>
       <c r="K259" s="6"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
@@ -4219,7 +4214,7 @@
       <c r="J260" s="7"/>
       <c r="K260" s="6"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
@@ -4232,7 +4227,7 @@
       <c r="J261" s="7"/>
       <c r="K261" s="6"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -4245,7 +4240,7 @@
       <c r="J262" s="7"/>
       <c r="K262" s="6"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
@@ -4258,7 +4253,7 @@
       <c r="J263" s="7"/>
       <c r="K263" s="6"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
@@ -4271,7 +4266,7 @@
       <c r="J264" s="7"/>
       <c r="K264" s="6"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
@@ -4284,7 +4279,7 @@
       <c r="J265" s="7"/>
       <c r="K265" s="6"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -4297,7 +4292,7 @@
       <c r="J266" s="7"/>
       <c r="K266" s="6"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
@@ -4310,7 +4305,7 @@
       <c r="J267" s="7"/>
       <c r="K267" s="6"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
@@ -4323,7 +4318,7 @@
       <c r="J268" s="7"/>
       <c r="K268" s="6"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
@@ -4336,7 +4331,7 @@
       <c r="J269" s="7"/>
       <c r="K269" s="6"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
@@ -4349,7 +4344,7 @@
       <c r="J270" s="7"/>
       <c r="K270" s="6"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
@@ -4362,7 +4357,7 @@
       <c r="J271" s="7"/>
       <c r="K271" s="6"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
@@ -4375,7 +4370,7 @@
       <c r="J272" s="7"/>
       <c r="K272" s="6"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
@@ -4388,7 +4383,7 @@
       <c r="J273" s="7"/>
       <c r="K273" s="6"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
@@ -4401,7 +4396,7 @@
       <c r="J274" s="7"/>
       <c r="K274" s="6"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
@@ -4414,7 +4409,7 @@
       <c r="J275" s="7"/>
       <c r="K275" s="6"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
@@ -4427,7 +4422,7 @@
       <c r="J276" s="7"/>
       <c r="K276" s="6"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
@@ -4440,7 +4435,7 @@
       <c r="J277" s="7"/>
       <c r="K277" s="6"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
@@ -4453,7 +4448,7 @@
       <c r="J278" s="7"/>
       <c r="K278" s="6"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
@@ -4466,7 +4461,7 @@
       <c r="J279" s="7"/>
       <c r="K279" s="6"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
@@ -4479,7 +4474,7 @@
       <c r="J280" s="7"/>
       <c r="K280" s="6"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
@@ -4492,7 +4487,7 @@
       <c r="J281" s="7"/>
       <c r="K281" s="6"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
@@ -4505,7 +4500,7 @@
       <c r="J282" s="7"/>
       <c r="K282" s="6"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
@@ -4518,7 +4513,7 @@
       <c r="J283" s="7"/>
       <c r="K283" s="6"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
@@ -4531,7 +4526,7 @@
       <c r="J284" s="7"/>
       <c r="K284" s="6"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
@@ -4544,7 +4539,7 @@
       <c r="J285" s="7"/>
       <c r="K285" s="6"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
@@ -4557,7 +4552,7 @@
       <c r="J286" s="7"/>
       <c r="K286" s="6"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
@@ -4570,7 +4565,7 @@
       <c r="J287" s="7"/>
       <c r="K287" s="6"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
@@ -4583,7 +4578,7 @@
       <c r="J288" s="7"/>
       <c r="K288" s="6"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
@@ -4596,7 +4591,7 @@
       <c r="J289" s="7"/>
       <c r="K289" s="6"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
@@ -4609,7 +4604,7 @@
       <c r="J290" s="7"/>
       <c r="K290" s="6"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
@@ -4622,7 +4617,7 @@
       <c r="J291" s="7"/>
       <c r="K291" s="6"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
@@ -4635,7 +4630,7 @@
       <c r="J292" s="7"/>
       <c r="K292" s="6"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
@@ -4648,7 +4643,7 @@
       <c r="J293" s="7"/>
       <c r="K293" s="6"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
@@ -4661,7 +4656,7 @@
       <c r="J294" s="7"/>
       <c r="K294" s="6"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
@@ -4674,7 +4669,7 @@
       <c r="J295" s="7"/>
       <c r="K295" s="6"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -4687,7 +4682,7 @@
       <c r="J296" s="7"/>
       <c r="K296" s="6"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
@@ -4700,7 +4695,7 @@
       <c r="J297" s="7"/>
       <c r="K297" s="6"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
@@ -4713,7 +4708,7 @@
       <c r="J298" s="7"/>
       <c r="K298" s="6"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
@@ -4726,7 +4721,7 @@
       <c r="J299" s="7"/>
       <c r="K299" s="6"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
@@ -4739,7 +4734,7 @@
       <c r="J300" s="7"/>
       <c r="K300" s="6"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
@@ -4752,7 +4747,7 @@
       <c r="J301" s="7"/>
       <c r="K301" s="6"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -4765,7 +4760,7 @@
       <c r="J302" s="7"/>
       <c r="K302" s="6"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -4778,7 +4773,7 @@
       <c r="J303" s="7"/>
       <c r="K303" s="6"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -4791,7 +4786,7 @@
       <c r="J304" s="7"/>
       <c r="K304" s="6"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -4804,7 +4799,7 @@
       <c r="J305" s="7"/>
       <c r="K305" s="6"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -4817,7 +4812,7 @@
       <c r="J306" s="7"/>
       <c r="K306" s="6"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -4830,7 +4825,7 @@
       <c r="J307" s="7"/>
       <c r="K307" s="6"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -4843,7 +4838,7 @@
       <c r="J308" s="7"/>
       <c r="K308" s="6"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -4856,7 +4851,7 @@
       <c r="J309" s="7"/>
       <c r="K309" s="6"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -4869,7 +4864,7 @@
       <c r="J310" s="7"/>
       <c r="K310" s="6"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -4882,7 +4877,7 @@
       <c r="J311" s="7"/>
       <c r="K311" s="6"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -4895,7 +4890,7 @@
       <c r="J312" s="7"/>
       <c r="K312" s="6"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -4908,7 +4903,7 @@
       <c r="J313" s="7"/>
       <c r="K313" s="6"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -4921,7 +4916,7 @@
       <c r="J314" s="7"/>
       <c r="K314" s="6"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -4934,7 +4929,7 @@
       <c r="J315" s="7"/>
       <c r="K315" s="6"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -4947,7 +4942,7 @@
       <c r="J316" s="7"/>
       <c r="K316" s="6"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -4960,7 +4955,7 @@
       <c r="J317" s="7"/>
       <c r="K317" s="6"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -4973,7 +4968,7 @@
       <c r="J318" s="7"/>
       <c r="K318" s="6"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -4986,7 +4981,7 @@
       <c r="J319" s="7"/>
       <c r="K319" s="6"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -4999,7 +4994,7 @@
       <c r="J320" s="7"/>
       <c r="K320" s="6"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -5012,7 +5007,7 @@
       <c r="J321" s="7"/>
       <c r="K321" s="6"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -5025,7 +5020,7 @@
       <c r="J322" s="7"/>
       <c r="K322" s="6"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -5038,7 +5033,7 @@
       <c r="J323" s="7"/>
       <c r="K323" s="6"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -5051,7 +5046,7 @@
       <c r="J324" s="7"/>
       <c r="K324" s="6"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -5064,7 +5059,7 @@
       <c r="J325" s="7"/>
       <c r="K325" s="6"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -5077,7 +5072,7 @@
       <c r="J326" s="7"/>
       <c r="K326" s="6"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -5090,7 +5085,7 @@
       <c r="J327" s="7"/>
       <c r="K327" s="6"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -5103,7 +5098,7 @@
       <c r="J328" s="7"/>
       <c r="K328" s="6"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -5116,7 +5111,7 @@
       <c r="J329" s="7"/>
       <c r="K329" s="6"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -5129,7 +5124,7 @@
       <c r="J330" s="7"/>
       <c r="K330" s="6"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -5142,7 +5137,7 @@
       <c r="J331" s="7"/>
       <c r="K331" s="6"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -5155,7 +5150,7 @@
       <c r="J332" s="7"/>
       <c r="K332" s="6"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -5168,7 +5163,7 @@
       <c r="J333" s="7"/>
       <c r="K333" s="6"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -5181,7 +5176,7 @@
       <c r="J334" s="7"/>
       <c r="K334" s="6"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -5194,7 +5189,7 @@
       <c r="J335" s="7"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -5207,7 +5202,7 @@
       <c r="J336" s="7"/>
       <c r="K336" s="6"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -5220,7 +5215,7 @@
       <c r="J337" s="7"/>
       <c r="K337" s="6"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -5233,7 +5228,7 @@
       <c r="J338" s="7"/>
       <c r="K338" s="6"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -5246,7 +5241,7 @@
       <c r="J339" s="7"/>
       <c r="K339" s="6"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
@@ -5259,7 +5254,7 @@
       <c r="J340" s="7"/>
       <c r="K340" s="6"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -5272,7 +5267,7 @@
       <c r="J341" s="7"/>
       <c r="K341" s="6"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
@@ -5285,7 +5280,7 @@
       <c r="J342" s="7"/>
       <c r="K342" s="6"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
@@ -5298,7 +5293,7 @@
       <c r="J343" s="7"/>
       <c r="K343" s="6"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
@@ -5311,7 +5306,7 @@
       <c r="J344" s="7"/>
       <c r="K344" s="6"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
@@ -5324,7 +5319,7 @@
       <c r="J345" s="7"/>
       <c r="K345" s="6"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
@@ -5337,7 +5332,7 @@
       <c r="J346" s="7"/>
       <c r="K346" s="6"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
@@ -5350,7 +5345,7 @@
       <c r="J347" s="7"/>
       <c r="K347" s="6"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
@@ -5363,7 +5358,7 @@
       <c r="J348" s="7"/>
       <c r="K348" s="6"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
@@ -5376,7 +5371,7 @@
       <c r="J349" s="7"/>
       <c r="K349" s="6"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
@@ -5389,7 +5384,7 @@
       <c r="J350" s="7"/>
       <c r="K350" s="6"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
@@ -5402,7 +5397,7 @@
       <c r="J351" s="7"/>
       <c r="K351" s="6"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
@@ -5415,7 +5410,7 @@
       <c r="J352" s="7"/>
       <c r="K352" s="6"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
@@ -5428,7 +5423,7 @@
       <c r="J353" s="7"/>
       <c r="K353" s="6"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
@@ -5441,7 +5436,7 @@
       <c r="J354" s="7"/>
       <c r="K354" s="6"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
@@ -5454,7 +5449,7 @@
       <c r="J355" s="7"/>
       <c r="K355" s="6"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
@@ -5467,7 +5462,7 @@
       <c r="J356" s="7"/>
       <c r="K356" s="6"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
@@ -5480,7 +5475,7 @@
       <c r="J357" s="7"/>
       <c r="K357" s="6"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
@@ -5493,7 +5488,7 @@
       <c r="J358" s="7"/>
       <c r="K358" s="6"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
@@ -5506,7 +5501,7 @@
       <c r="J359" s="7"/>
       <c r="K359" s="6"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
@@ -5519,7 +5514,7 @@
       <c r="J360" s="7"/>
       <c r="K360" s="6"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
@@ -5532,7 +5527,7 @@
       <c r="J361" s="7"/>
       <c r="K361" s="6"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
@@ -5545,7 +5540,7 @@
       <c r="J362" s="7"/>
       <c r="K362" s="6"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
@@ -5558,7 +5553,7 @@
       <c r="J363" s="7"/>
       <c r="K363" s="6"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
@@ -5571,7 +5566,7 @@
       <c r="J364" s="7"/>
       <c r="K364" s="6"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
@@ -5584,7 +5579,7 @@
       <c r="J365" s="7"/>
       <c r="K365" s="6"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
@@ -5597,7 +5592,7 @@
       <c r="J366" s="7"/>
       <c r="K366" s="6"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
@@ -5610,7 +5605,7 @@
       <c r="J367" s="7"/>
       <c r="K367" s="6"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
@@ -5623,7 +5618,7 @@
       <c r="J368" s="7"/>
       <c r="K368" s="6"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
@@ -5636,7 +5631,7 @@
       <c r="J369" s="7"/>
       <c r="K369" s="6"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
@@ -5649,7 +5644,7 @@
       <c r="J370" s="7"/>
       <c r="K370" s="6"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
@@ -5662,7 +5657,7 @@
       <c r="J371" s="7"/>
       <c r="K371" s="6"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
@@ -5675,7 +5670,7 @@
       <c r="J372" s="7"/>
       <c r="K372" s="6"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
@@ -5688,7 +5683,7 @@
       <c r="J373" s="7"/>
       <c r="K373" s="6"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
@@ -5701,7 +5696,7 @@
       <c r="J374" s="7"/>
       <c r="K374" s="6"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
@@ -5714,7 +5709,7 @@
       <c r="J375" s="7"/>
       <c r="K375" s="6"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
@@ -5727,7 +5722,7 @@
       <c r="J376" s="7"/>
       <c r="K376" s="6"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
@@ -5740,7 +5735,7 @@
       <c r="J377" s="7"/>
       <c r="K377" s="6"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
@@ -5753,7 +5748,7 @@
       <c r="J378" s="7"/>
       <c r="K378" s="6"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
@@ -5766,7 +5761,7 @@
       <c r="J379" s="7"/>
       <c r="K379" s="6"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
@@ -5779,7 +5774,7 @@
       <c r="J380" s="7"/>
       <c r="K380" s="6"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
@@ -5792,7 +5787,7 @@
       <c r="J381" s="7"/>
       <c r="K381" s="6"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
@@ -5805,7 +5800,7 @@
       <c r="J382" s="7"/>
       <c r="K382" s="6"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
@@ -5818,7 +5813,7 @@
       <c r="J383" s="7"/>
       <c r="K383" s="6"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
@@ -5831,7 +5826,7 @@
       <c r="J384" s="7"/>
       <c r="K384" s="6"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
@@ -5844,7 +5839,7 @@
       <c r="J385" s="7"/>
       <c r="K385" s="6"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
@@ -5857,7 +5852,7 @@
       <c r="J386" s="7"/>
       <c r="K386" s="6"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
@@ -5870,7 +5865,7 @@
       <c r="J387" s="7"/>
       <c r="K387" s="6"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
@@ -5883,7 +5878,7 @@
       <c r="J388" s="7"/>
       <c r="K388" s="6"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
@@ -5896,7 +5891,7 @@
       <c r="J389" s="7"/>
       <c r="K389" s="6"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
@@ -5909,7 +5904,7 @@
       <c r="J390" s="7"/>
       <c r="K390" s="6"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
@@ -5922,7 +5917,7 @@
       <c r="J391" s="7"/>
       <c r="K391" s="6"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -5935,7 +5930,7 @@
       <c r="J392" s="7"/>
       <c r="K392" s="6"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
@@ -5948,7 +5943,7 @@
       <c r="J393" s="7"/>
       <c r="K393" s="6"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
@@ -5961,7 +5956,7 @@
       <c r="J394" s="7"/>
       <c r="K394" s="6"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
@@ -5974,7 +5969,7 @@
       <c r="J395" s="7"/>
       <c r="K395" s="6"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
@@ -5987,7 +5982,7 @@
       <c r="J396" s="7"/>
       <c r="K396" s="6"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
@@ -6000,7 +5995,7 @@
       <c r="J397" s="7"/>
       <c r="K397" s="6"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
@@ -6013,7 +6008,7 @@
       <c r="J398" s="7"/>
       <c r="K398" s="6"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
@@ -6026,7 +6021,7 @@
       <c r="J399" s="7"/>
       <c r="K399" s="6"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
@@ -6039,7 +6034,7 @@
       <c r="J400" s="7"/>
       <c r="K400" s="6"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
@@ -6052,7 +6047,7 @@
       <c r="J401" s="7"/>
       <c r="K401" s="6"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
@@ -6065,7 +6060,7 @@
       <c r="J402" s="7"/>
       <c r="K402" s="6"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
@@ -6078,7 +6073,7 @@
       <c r="J403" s="7"/>
       <c r="K403" s="6"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
@@ -6091,7 +6086,7 @@
       <c r="J404" s="7"/>
       <c r="K404" s="6"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -6104,7 +6099,7 @@
       <c r="J405" s="7"/>
       <c r="K405" s="6"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
@@ -6117,7 +6112,7 @@
       <c r="J406" s="7"/>
       <c r="K406" s="6"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
@@ -6130,7 +6125,7 @@
       <c r="J407" s="7"/>
       <c r="K407" s="6"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
@@ -6143,7 +6138,7 @@
       <c r="J408" s="7"/>
       <c r="K408" s="6"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
@@ -6156,7 +6151,7 @@
       <c r="J409" s="7"/>
       <c r="K409" s="6"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
@@ -6169,7 +6164,7 @@
       <c r="J410" s="7"/>
       <c r="K410" s="6"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
@@ -6182,7 +6177,7 @@
       <c r="J411" s="7"/>
       <c r="K411" s="6"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
@@ -6195,7 +6190,7 @@
       <c r="J412" s="7"/>
       <c r="K412" s="6"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
@@ -6208,7 +6203,7 @@
       <c r="J413" s="7"/>
       <c r="K413" s="6"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
@@ -6221,7 +6216,7 @@
       <c r="J414" s="7"/>
       <c r="K414" s="6"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
@@ -6234,7 +6229,7 @@
       <c r="J415" s="7"/>
       <c r="K415" s="6"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
@@ -6247,7 +6242,7 @@
       <c r="J416" s="7"/>
       <c r="K416" s="6"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
@@ -6260,7 +6255,7 @@
       <c r="J417" s="7"/>
       <c r="K417" s="6"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
@@ -6273,7 +6268,7 @@
       <c r="J418" s="7"/>
       <c r="K418" s="6"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
@@ -6286,7 +6281,7 @@
       <c r="J419" s="7"/>
       <c r="K419" s="6"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
@@ -6299,7 +6294,7 @@
       <c r="J420" s="7"/>
       <c r="K420" s="6"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
@@ -6312,7 +6307,7 @@
       <c r="J421" s="7"/>
       <c r="K421" s="6"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
@@ -6325,7 +6320,7 @@
       <c r="J422" s="7"/>
       <c r="K422" s="6"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
@@ -6338,7 +6333,7 @@
       <c r="J423" s="7"/>
       <c r="K423" s="6"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
@@ -6351,7 +6346,7 @@
       <c r="J424" s="7"/>
       <c r="K424" s="6"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
@@ -6364,7 +6359,7 @@
       <c r="J425" s="7"/>
       <c r="K425" s="6"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
@@ -6377,7 +6372,7 @@
       <c r="J426" s="7"/>
       <c r="K426" s="6"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
@@ -6390,7 +6385,7 @@
       <c r="J427" s="7"/>
       <c r="K427" s="6"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -6403,7 +6398,7 @@
       <c r="J428" s="7"/>
       <c r="K428" s="6"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
@@ -6416,7 +6411,7 @@
       <c r="J429" s="7"/>
       <c r="K429" s="6"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
@@ -6429,7 +6424,7 @@
       <c r="J430" s="7"/>
       <c r="K430" s="6"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
@@ -6442,7 +6437,7 @@
       <c r="J431" s="7"/>
       <c r="K431" s="6"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
@@ -6455,7 +6450,7 @@
       <c r="J432" s="7"/>
       <c r="K432" s="6"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -6468,7 +6463,7 @@
       <c r="J433" s="7"/>
       <c r="K433" s="6"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
@@ -6481,7 +6476,7 @@
       <c r="J434" s="7"/>
       <c r="K434" s="6"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
@@ -6494,7 +6489,7 @@
       <c r="J435" s="7"/>
       <c r="K435" s="6"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
@@ -6507,7 +6502,7 @@
       <c r="J436" s="7"/>
       <c r="K436" s="6"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
@@ -6520,7 +6515,7 @@
       <c r="J437" s="7"/>
       <c r="K437" s="6"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
@@ -6533,7 +6528,7 @@
       <c r="J438" s="7"/>
       <c r="K438" s="6"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
@@ -6546,7 +6541,7 @@
       <c r="J439" s="7"/>
       <c r="K439" s="6"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
@@ -6559,7 +6554,7 @@
       <c r="J440" s="7"/>
       <c r="K440" s="6"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
@@ -6572,7 +6567,7 @@
       <c r="J441" s="7"/>
       <c r="K441" s="6"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
@@ -6585,7 +6580,7 @@
       <c r="J442" s="7"/>
       <c r="K442" s="6"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
@@ -6598,7 +6593,7 @@
       <c r="J443" s="7"/>
       <c r="K443" s="6"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
@@ -6611,7 +6606,7 @@
       <c r="J444" s="7"/>
       <c r="K444" s="6"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
@@ -6624,7 +6619,7 @@
       <c r="J445" s="7"/>
       <c r="K445" s="6"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
@@ -6637,7 +6632,7 @@
       <c r="J446" s="7"/>
       <c r="K446" s="6"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
@@ -6650,7 +6645,7 @@
       <c r="J447" s="7"/>
       <c r="K447" s="6"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -6663,7 +6658,7 @@
       <c r="J448" s="7"/>
       <c r="K448" s="6"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6"/>
@@ -6676,7 +6671,7 @@
       <c r="J449" s="7"/>
       <c r="K449" s="6"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
@@ -6689,7 +6684,7 @@
       <c r="J450" s="7"/>
       <c r="K450" s="6"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6"/>
@@ -6702,7 +6697,7 @@
       <c r="J451" s="7"/>
       <c r="K451" s="6"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
@@ -6715,7 +6710,7 @@
       <c r="J452" s="7"/>
       <c r="K452" s="6"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6"/>
@@ -6728,7 +6723,7 @@
       <c r="J453" s="7"/>
       <c r="K453" s="6"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
@@ -6741,7 +6736,7 @@
       <c r="J454" s="7"/>
       <c r="K454" s="6"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="6"/>
@@ -6754,7 +6749,7 @@
       <c r="J455" s="7"/>
       <c r="K455" s="6"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
@@ -6767,7 +6762,7 @@
       <c r="J456" s="7"/>
       <c r="K456" s="6"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6"/>
@@ -6780,7 +6775,7 @@
       <c r="J457" s="7"/>
       <c r="K457" s="6"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
@@ -6793,7 +6788,7 @@
       <c r="J458" s="7"/>
       <c r="K458" s="6"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6"/>
@@ -6806,7 +6801,7 @@
       <c r="J459" s="7"/>
       <c r="K459" s="6"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
@@ -6819,7 +6814,7 @@
       <c r="J460" s="7"/>
       <c r="K460" s="6"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6"/>
@@ -6832,7 +6827,7 @@
       <c r="J461" s="7"/>
       <c r="K461" s="6"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
@@ -6845,7 +6840,7 @@
       <c r="J462" s="7"/>
       <c r="K462" s="6"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6"/>
@@ -6858,7 +6853,7 @@
       <c r="J463" s="7"/>
       <c r="K463" s="6"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
@@ -6871,7 +6866,7 @@
       <c r="J464" s="7"/>
       <c r="K464" s="6"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6"/>
@@ -6884,7 +6879,7 @@
       <c r="J465" s="7"/>
       <c r="K465" s="6"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
@@ -6897,7 +6892,7 @@
       <c r="J466" s="7"/>
       <c r="K466" s="6"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6"/>
@@ -6910,7 +6905,7 @@
       <c r="J467" s="7"/>
       <c r="K467" s="6"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
@@ -6923,7 +6918,7 @@
       <c r="J468" s="7"/>
       <c r="K468" s="6"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6"/>
@@ -6936,7 +6931,7 @@
       <c r="J469" s="7"/>
       <c r="K469" s="6"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
@@ -6949,7 +6944,7 @@
       <c r="J470" s="7"/>
       <c r="K470" s="6"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
@@ -6962,7 +6957,7 @@
       <c r="J471" s="7"/>
       <c r="K471" s="6"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
@@ -6975,7 +6970,7 @@
       <c r="J472" s="7"/>
       <c r="K472" s="6"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6"/>
@@ -6988,7 +6983,7 @@
       <c r="J473" s="7"/>
       <c r="K473" s="6"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
@@ -7001,7 +6996,7 @@
       <c r="J474" s="7"/>
       <c r="K474" s="6"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6"/>
@@ -7014,7 +7009,7 @@
       <c r="J475" s="7"/>
       <c r="K475" s="6"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
@@ -7027,7 +7022,7 @@
       <c r="J476" s="7"/>
       <c r="K476" s="6"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6"/>
@@ -7040,7 +7035,7 @@
       <c r="J477" s="7"/>
       <c r="K477" s="6"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
@@ -7053,7 +7048,7 @@
       <c r="J478" s="7"/>
       <c r="K478" s="6"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6"/>
@@ -7066,7 +7061,7 @@
       <c r="J479" s="7"/>
       <c r="K479" s="6"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
@@ -7079,7 +7074,7 @@
       <c r="J480" s="7"/>
       <c r="K480" s="6"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6"/>
@@ -7092,7 +7087,7 @@
       <c r="J481" s="7"/>
       <c r="K481" s="6"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
@@ -7105,7 +7100,7 @@
       <c r="J482" s="7"/>
       <c r="K482" s="6"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6"/>
@@ -7118,7 +7113,7 @@
       <c r="J483" s="7"/>
       <c r="K483" s="6"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
@@ -7131,7 +7126,7 @@
       <c r="J484" s="7"/>
       <c r="K484" s="6"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6"/>
@@ -7144,7 +7139,7 @@
       <c r="J485" s="7"/>
       <c r="K485" s="6"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
@@ -7157,7 +7152,7 @@
       <c r="J486" s="7"/>
       <c r="K486" s="6"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6"/>
@@ -7170,7 +7165,7 @@
       <c r="J487" s="7"/>
       <c r="K487" s="6"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
@@ -7183,7 +7178,7 @@
       <c r="J488" s="7"/>
       <c r="K488" s="6"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
@@ -7196,7 +7191,7 @@
       <c r="J489" s="7"/>
       <c r="K489" s="6"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
@@ -7209,7 +7204,7 @@
       <c r="J490" s="7"/>
       <c r="K490" s="6"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6"/>
@@ -7222,7 +7217,7 @@
       <c r="J491" s="7"/>
       <c r="K491" s="6"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
@@ -7235,7 +7230,7 @@
       <c r="J492" s="7"/>
       <c r="K492" s="6"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6"/>
@@ -7248,7 +7243,7 @@
       <c r="J493" s="7"/>
       <c r="K493" s="6"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
@@ -7261,7 +7256,7 @@
       <c r="J494" s="7"/>
       <c r="K494" s="6"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6"/>
@@ -7274,7 +7269,7 @@
       <c r="J495" s="7"/>
       <c r="K495" s="6"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
@@ -7287,7 +7282,7 @@
       <c r="J496" s="7"/>
       <c r="K496" s="6"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6"/>
@@ -7300,7 +7295,7 @@
       <c r="J497" s="7"/>
       <c r="K497" s="6"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
@@ -7313,7 +7308,7 @@
       <c r="J498" s="7"/>
       <c r="K498" s="6"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6"/>
@@ -7326,7 +7321,7 @@
       <c r="J499" s="7"/>
       <c r="K499" s="6"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
@@ -7339,7 +7334,7 @@
       <c r="J500" s="7"/>
       <c r="K500" s="6"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6"/>
@@ -7352,7 +7347,7 @@
       <c r="J501" s="7"/>
       <c r="K501" s="6"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
@@ -7365,7 +7360,7 @@
       <c r="J502" s="7"/>
       <c r="K502" s="6"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6"/>
@@ -7378,7 +7373,7 @@
       <c r="J503" s="7"/>
       <c r="K503" s="6"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
@@ -7391,7 +7386,7 @@
       <c r="J504" s="7"/>
       <c r="K504" s="6"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6"/>
@@ -7404,7 +7399,7 @@
       <c r="J505" s="7"/>
       <c r="K505" s="6"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
@@ -7417,7 +7412,7 @@
       <c r="J506" s="7"/>
       <c r="K506" s="6"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6"/>
@@ -7430,7 +7425,7 @@
       <c r="J507" s="7"/>
       <c r="K507" s="6"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
@@ -7443,7 +7438,7 @@
       <c r="J508" s="7"/>
       <c r="K508" s="6"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6"/>
@@ -7456,7 +7451,7 @@
       <c r="J509" s="7"/>
       <c r="K509" s="6"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
@@ -7469,7 +7464,7 @@
       <c r="J510" s="7"/>
       <c r="K510" s="6"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6"/>
@@ -7482,7 +7477,7 @@
       <c r="J511" s="7"/>
       <c r="K511" s="6"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
@@ -7495,7 +7490,7 @@
       <c r="J512" s="7"/>
       <c r="K512" s="6"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6"/>
@@ -7508,7 +7503,7 @@
       <c r="J513" s="7"/>
       <c r="K513" s="6"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
@@ -7521,7 +7516,7 @@
       <c r="J514" s="7"/>
       <c r="K514" s="6"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6"/>
@@ -7534,7 +7529,7 @@
       <c r="J515" s="7"/>
       <c r="K515" s="6"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
@@ -7547,7 +7542,7 @@
       <c r="J516" s="7"/>
       <c r="K516" s="6"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6"/>
@@ -7560,7 +7555,7 @@
       <c r="J517" s="7"/>
       <c r="K517" s="6"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
@@ -7573,7 +7568,7 @@
       <c r="J518" s="7"/>
       <c r="K518" s="6"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6"/>
@@ -7586,7 +7581,7 @@
       <c r="J519" s="7"/>
       <c r="K519" s="6"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
@@ -7599,7 +7594,7 @@
       <c r="J520" s="7"/>
       <c r="K520" s="6"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6"/>
@@ -7612,7 +7607,7 @@
       <c r="J521" s="7"/>
       <c r="K521" s="6"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
@@ -7625,7 +7620,7 @@
       <c r="J522" s="7"/>
       <c r="K522" s="6"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6"/>
@@ -7638,7 +7633,7 @@
       <c r="J523" s="7"/>
       <c r="K523" s="6"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6"/>
@@ -7651,7 +7646,7 @@
       <c r="J524" s="7"/>
       <c r="K524" s="6"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6"/>
@@ -7664,7 +7659,7 @@
       <c r="J525" s="7"/>
       <c r="K525" s="6"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6"/>
@@ -7677,7 +7672,7 @@
       <c r="J526" s="7"/>
       <c r="K526" s="6"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6"/>
@@ -7690,7 +7685,7 @@
       <c r="J527" s="7"/>
       <c r="K527" s="6"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6"/>
@@ -7703,7 +7698,7 @@
       <c r="J528" s="7"/>
       <c r="K528" s="6"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6"/>
@@ -7716,7 +7711,7 @@
       <c r="J529" s="7"/>
       <c r="K529" s="6"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6"/>
@@ -7729,7 +7724,7 @@
       <c r="J530" s="7"/>
       <c r="K530" s="6"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="6"/>
@@ -7742,7 +7737,7 @@
       <c r="J531" s="7"/>
       <c r="K531" s="6"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6"/>
@@ -7755,7 +7750,7 @@
       <c r="J532" s="7"/>
       <c r="K532" s="6"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="6"/>
@@ -7768,7 +7763,7 @@
       <c r="J533" s="7"/>
       <c r="K533" s="6"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
@@ -7781,7 +7776,7 @@
       <c r="J534" s="7"/>
       <c r="K534" s="6"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6"/>
@@ -7794,7 +7789,7 @@
       <c r="J535" s="7"/>
       <c r="K535" s="6"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
@@ -7807,7 +7802,7 @@
       <c r="J536" s="7"/>
       <c r="K536" s="6"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6"/>
@@ -7820,7 +7815,7 @@
       <c r="J537" s="7"/>
       <c r="K537" s="6"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6"/>
@@ -7833,7 +7828,7 @@
       <c r="J538" s="7"/>
       <c r="K538" s="6"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6"/>
@@ -7846,7 +7841,7 @@
       <c r="J539" s="7"/>
       <c r="K539" s="6"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6"/>
@@ -7859,7 +7854,7 @@
       <c r="J540" s="7"/>
       <c r="K540" s="6"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6"/>
@@ -7872,7 +7867,7 @@
       <c r="J541" s="7"/>
       <c r="K541" s="6"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="6"/>
@@ -7885,7 +7880,7 @@
       <c r="J542" s="7"/>
       <c r="K542" s="6"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6"/>
@@ -7898,7 +7893,7 @@
       <c r="J543" s="7"/>
       <c r="K543" s="6"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6"/>
@@ -7911,7 +7906,7 @@
       <c r="J544" s="7"/>
       <c r="K544" s="6"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="6"/>
@@ -7924,7 +7919,7 @@
       <c r="J545" s="7"/>
       <c r="K545" s="6"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6"/>
@@ -7937,7 +7932,7 @@
       <c r="J546" s="7"/>
       <c r="K546" s="6"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6"/>
@@ -7950,7 +7945,7 @@
       <c r="J547" s="7"/>
       <c r="K547" s="6"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6"/>
@@ -7963,7 +7958,7 @@
       <c r="J548" s="7"/>
       <c r="K548" s="6"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6"/>
@@ -7976,7 +7971,7 @@
       <c r="J549" s="7"/>
       <c r="K549" s="6"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6"/>
@@ -7989,7 +7984,7 @@
       <c r="J550" s="7"/>
       <c r="K550" s="6"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6"/>
@@ -8002,7 +7997,7 @@
       <c r="J551" s="7"/>
       <c r="K551" s="6"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="6"/>
@@ -8015,7 +8010,7 @@
       <c r="J552" s="7"/>
       <c r="K552" s="6"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6"/>
@@ -8028,7 +8023,7 @@
       <c r="J553" s="7"/>
       <c r="K553" s="6"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6"/>
@@ -8041,7 +8036,7 @@
       <c r="J554" s="7"/>
       <c r="K554" s="6"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6"/>
@@ -8054,7 +8049,7 @@
       <c r="J555" s="7"/>
       <c r="K555" s="6"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6"/>
@@ -8067,7 +8062,7 @@
       <c r="J556" s="7"/>
       <c r="K556" s="6"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6"/>
@@ -8080,7 +8075,7 @@
       <c r="J557" s="7"/>
       <c r="K557" s="6"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6"/>
@@ -8093,7 +8088,7 @@
       <c r="J558" s="7"/>
       <c r="K558" s="6"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6"/>
@@ -8106,7 +8101,7 @@
       <c r="J559" s="7"/>
       <c r="K559" s="6"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6"/>
@@ -8119,7 +8114,7 @@
       <c r="J560" s="7"/>
       <c r="K560" s="6"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6"/>
@@ -8132,7 +8127,7 @@
       <c r="J561" s="7"/>
       <c r="K561" s="6"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6"/>
@@ -8145,7 +8140,7 @@
       <c r="J562" s="7"/>
       <c r="K562" s="6"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6"/>
@@ -8158,7 +8153,7 @@
       <c r="J563" s="7"/>
       <c r="K563" s="6"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6"/>
@@ -8171,7 +8166,7 @@
       <c r="J564" s="7"/>
       <c r="K564" s="6"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6"/>
@@ -8184,7 +8179,7 @@
       <c r="J565" s="7"/>
       <c r="K565" s="6"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6"/>
@@ -8197,7 +8192,7 @@
       <c r="J566" s="7"/>
       <c r="K566" s="6"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6"/>
@@ -8210,7 +8205,7 @@
       <c r="J567" s="7"/>
       <c r="K567" s="6"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6"/>
@@ -8223,7 +8218,7 @@
       <c r="J568" s="7"/>
       <c r="K568" s="6"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6"/>
@@ -8236,7 +8231,7 @@
       <c r="J569" s="7"/>
       <c r="K569" s="6"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6"/>
@@ -8249,7 +8244,7 @@
       <c r="J570" s="7"/>
       <c r="K570" s="6"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6"/>
@@ -8262,7 +8257,7 @@
       <c r="J571" s="7"/>
       <c r="K571" s="6"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6"/>
@@ -8275,7 +8270,7 @@
       <c r="J572" s="7"/>
       <c r="K572" s="6"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6"/>
@@ -8288,7 +8283,7 @@
       <c r="J573" s="7"/>
       <c r="K573" s="6"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6"/>
@@ -8301,7 +8296,7 @@
       <c r="J574" s="7"/>
       <c r="K574" s="6"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6"/>
@@ -8314,7 +8309,7 @@
       <c r="J575" s="7"/>
       <c r="K575" s="6"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="6"/>
@@ -8327,7 +8322,7 @@
       <c r="J576" s="7"/>
       <c r="K576" s="6"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="6"/>
@@ -8340,7 +8335,7 @@
       <c r="J577" s="7"/>
       <c r="K577" s="6"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="6"/>
@@ -8353,7 +8348,7 @@
       <c r="J578" s="7"/>
       <c r="K578" s="6"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="6"/>
@@ -8366,7 +8361,7 @@
       <c r="J579" s="7"/>
       <c r="K579" s="6"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="6"/>
@@ -8379,7 +8374,7 @@
       <c r="J580" s="7"/>
       <c r="K580" s="6"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="6"/>
@@ -8392,7 +8387,7 @@
       <c r="J581" s="7"/>
       <c r="K581" s="6"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="6"/>
@@ -8405,7 +8400,7 @@
       <c r="J582" s="7"/>
       <c r="K582" s="6"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="6"/>
@@ -8418,7 +8413,7 @@
       <c r="J583" s="7"/>
       <c r="K583" s="6"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="6"/>
@@ -8431,7 +8426,7 @@
       <c r="J584" s="7"/>
       <c r="K584" s="6"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6"/>
@@ -8444,7 +8439,7 @@
       <c r="J585" s="7"/>
       <c r="K585" s="6"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
@@ -8457,7 +8452,7 @@
       <c r="J586" s="7"/>
       <c r="K586" s="6"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6"/>
@@ -8470,7 +8465,7 @@
       <c r="J587" s="7"/>
       <c r="K587" s="6"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="6"/>
@@ -8483,7 +8478,7 @@
       <c r="J588" s="7"/>
       <c r="K588" s="6"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6"/>
@@ -8496,7 +8491,7 @@
       <c r="J589" s="7"/>
       <c r="K589" s="6"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="6"/>
@@ -8509,7 +8504,7 @@
       <c r="J590" s="7"/>
       <c r="K590" s="6"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="6"/>
@@ -8522,7 +8517,7 @@
       <c r="J591" s="7"/>
       <c r="K591" s="6"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="6"/>
@@ -8535,7 +8530,7 @@
       <c r="J592" s="7"/>
       <c r="K592" s="6"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6"/>
@@ -8548,7 +8543,7 @@
       <c r="J593" s="7"/>
       <c r="K593" s="6"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
@@ -8561,7 +8556,7 @@
       <c r="J594" s="7"/>
       <c r="K594" s="6"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6"/>
@@ -8574,7 +8569,7 @@
       <c r="J595" s="7"/>
       <c r="K595" s="6"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
@@ -8587,7 +8582,7 @@
       <c r="J596" s="7"/>
       <c r="K596" s="6"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6"/>
@@ -8600,7 +8595,7 @@
       <c r="J597" s="7"/>
       <c r="K597" s="6"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
@@ -8613,7 +8608,7 @@
       <c r="J598" s="7"/>
       <c r="K598" s="6"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6"/>
@@ -8626,7 +8621,7 @@
       <c r="J599" s="7"/>
       <c r="K599" s="6"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
@@ -8639,7 +8634,7 @@
       <c r="J600" s="7"/>
       <c r="K600" s="6"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="6"/>
@@ -8652,7 +8647,7 @@
       <c r="J601" s="7"/>
       <c r="K601" s="6"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
@@ -8665,7 +8660,7 @@
       <c r="J602" s="7"/>
       <c r="K602" s="6"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6"/>
@@ -8678,7 +8673,7 @@
       <c r="J603" s="7"/>
       <c r="K603" s="6"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
@@ -8691,7 +8686,7 @@
       <c r="J604" s="7"/>
       <c r="K604" s="6"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6"/>
@@ -8704,7 +8699,7 @@
       <c r="J605" s="7"/>
       <c r="K605" s="6"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6"/>
@@ -8717,7 +8712,7 @@
       <c r="J606" s="7"/>
       <c r="K606" s="6"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6"/>
@@ -8730,7 +8725,7 @@
       <c r="J607" s="7"/>
       <c r="K607" s="6"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6"/>
@@ -8743,7 +8738,7 @@
       <c r="J608" s="7"/>
       <c r="K608" s="6"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6"/>
@@ -8756,7 +8751,7 @@
       <c r="J609" s="7"/>
       <c r="K609" s="6"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6"/>
@@ -8769,7 +8764,7 @@
       <c r="J610" s="7"/>
       <c r="K610" s="6"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="6"/>
@@ -8782,7 +8777,7 @@
       <c r="J611" s="7"/>
       <c r="K611" s="6"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6"/>
@@ -8795,7 +8790,7 @@
       <c r="J612" s="7"/>
       <c r="K612" s="6"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6"/>
@@ -8808,7 +8803,7 @@
       <c r="J613" s="7"/>
       <c r="K613" s="6"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="6"/>
@@ -8821,7 +8816,7 @@
       <c r="J614" s="7"/>
       <c r="K614" s="6"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="6"/>
@@ -8834,7 +8829,7 @@
       <c r="J615" s="7"/>
       <c r="K615" s="6"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="6"/>
@@ -8847,7 +8842,7 @@
       <c r="J616" s="7"/>
       <c r="K616" s="6"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6"/>
@@ -8860,7 +8855,7 @@
       <c r="J617" s="7"/>
       <c r="K617" s="6"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6"/>
@@ -8873,7 +8868,7 @@
       <c r="J618" s="7"/>
       <c r="K618" s="6"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6"/>
@@ -8886,7 +8881,7 @@
       <c r="J619" s="7"/>
       <c r="K619" s="6"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6"/>
@@ -8899,7 +8894,7 @@
       <c r="J620" s="7"/>
       <c r="K620" s="6"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6"/>
@@ -8912,7 +8907,7 @@
       <c r="J621" s="7"/>
       <c r="K621" s="6"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6"/>
@@ -8925,7 +8920,7 @@
       <c r="J622" s="7"/>
       <c r="K622" s="6"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6"/>
@@ -8938,7 +8933,7 @@
       <c r="J623" s="7"/>
       <c r="K623" s="6"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6"/>
@@ -8951,7 +8946,7 @@
       <c r="J624" s="7"/>
       <c r="K624" s="6"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6"/>
@@ -8964,7 +8959,7 @@
       <c r="J625" s="7"/>
       <c r="K625" s="6"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="6"/>
@@ -8977,7 +8972,7 @@
       <c r="J626" s="7"/>
       <c r="K626" s="6"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6"/>
@@ -8990,7 +8985,7 @@
       <c r="J627" s="7"/>
       <c r="K627" s="6"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6"/>
@@ -9003,7 +8998,7 @@
       <c r="J628" s="7"/>
       <c r="K628" s="6"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6"/>
@@ -9016,7 +9011,7 @@
       <c r="J629" s="7"/>
       <c r="K629" s="6"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6"/>
@@ -9029,7 +9024,7 @@
       <c r="J630" s="7"/>
       <c r="K630" s="6"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6"/>
@@ -9042,7 +9037,7 @@
       <c r="J631" s="7"/>
       <c r="K631" s="6"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6"/>
@@ -9055,7 +9050,7 @@
       <c r="J632" s="7"/>
       <c r="K632" s="6"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6"/>
@@ -9068,7 +9063,7 @@
       <c r="J633" s="7"/>
       <c r="K633" s="6"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
@@ -9081,7 +9076,7 @@
       <c r="J634" s="7"/>
       <c r="K634" s="6"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6"/>
@@ -9094,7 +9089,7 @@
       <c r="J635" s="7"/>
       <c r="K635" s="6"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
@@ -9107,7 +9102,7 @@
       <c r="J636" s="7"/>
       <c r="K636" s="6"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6"/>
@@ -9120,7 +9115,7 @@
       <c r="J637" s="7"/>
       <c r="K637" s="6"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
@@ -9133,7 +9128,7 @@
       <c r="J638" s="7"/>
       <c r="K638" s="6"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6"/>
@@ -9146,7 +9141,7 @@
       <c r="J639" s="7"/>
       <c r="K639" s="6"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
@@ -9159,7 +9154,7 @@
       <c r="J640" s="7"/>
       <c r="K640" s="6"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6"/>
@@ -9172,7 +9167,7 @@
       <c r="J641" s="7"/>
       <c r="K641" s="6"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
@@ -9185,7 +9180,7 @@
       <c r="J642" s="7"/>
       <c r="K642" s="6"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6"/>
@@ -9198,7 +9193,7 @@
       <c r="J643" s="7"/>
       <c r="K643" s="6"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
@@ -9211,7 +9206,7 @@
       <c r="J644" s="7"/>
       <c r="K644" s="6"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6"/>
@@ -9224,7 +9219,7 @@
       <c r="J645" s="7"/>
       <c r="K645" s="6"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
@@ -9237,7 +9232,7 @@
       <c r="J646" s="7"/>
       <c r="K646" s="6"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6"/>
@@ -9250,7 +9245,7 @@
       <c r="J647" s="7"/>
       <c r="K647" s="6"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
@@ -9263,7 +9258,7 @@
       <c r="J648" s="7"/>
       <c r="K648" s="6"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6"/>
@@ -9276,7 +9271,7 @@
       <c r="J649" s="7"/>
       <c r="K649" s="6"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
@@ -9289,7 +9284,7 @@
       <c r="J650" s="7"/>
       <c r="K650" s="6"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="6"/>
@@ -9302,7 +9297,7 @@
       <c r="J651" s="7"/>
       <c r="K651" s="6"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="6"/>
@@ -9315,7 +9310,7 @@
       <c r="J652" s="7"/>
       <c r="K652" s="6"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="6"/>
@@ -9328,7 +9323,7 @@
       <c r="J653" s="7"/>
       <c r="K653" s="6"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="6"/>
@@ -9341,7 +9336,7 @@
       <c r="J654" s="7"/>
       <c r="K654" s="6"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="6"/>
@@ -9354,7 +9349,7 @@
       <c r="J655" s="7"/>
       <c r="K655" s="6"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="6"/>
@@ -9367,7 +9362,7 @@
       <c r="J656" s="7"/>
       <c r="K656" s="6"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="6"/>
@@ -9380,7 +9375,7 @@
       <c r="J657" s="7"/>
       <c r="K657" s="6"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="6"/>
@@ -9393,7 +9388,7 @@
       <c r="J658" s="7"/>
       <c r="K658" s="6"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="6"/>
@@ -9406,7 +9401,7 @@
       <c r="J659" s="7"/>
       <c r="K659" s="6"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6"/>
@@ -9419,7 +9414,7 @@
       <c r="J660" s="7"/>
       <c r="K660" s="6"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6"/>
@@ -9432,7 +9427,7 @@
       <c r="J661" s="7"/>
       <c r="K661" s="6"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6"/>
@@ -9445,7 +9440,7 @@
       <c r="J662" s="7"/>
       <c r="K662" s="6"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6"/>
@@ -9458,7 +9453,7 @@
       <c r="J663" s="7"/>
       <c r="K663" s="6"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6"/>
@@ -9471,7 +9466,7 @@
       <c r="J664" s="7"/>
       <c r="K664" s="6"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6"/>
@@ -9484,7 +9479,7 @@
       <c r="J665" s="7"/>
       <c r="K665" s="6"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6"/>
@@ -9497,7 +9492,7 @@
       <c r="J666" s="7"/>
       <c r="K666" s="6"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6"/>
@@ -9510,7 +9505,7 @@
       <c r="J667" s="7"/>
       <c r="K667" s="6"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6"/>
@@ -9523,7 +9518,7 @@
       <c r="J668" s="7"/>
       <c r="K668" s="6"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6"/>
@@ -9536,7 +9531,7 @@
       <c r="J669" s="7"/>
       <c r="K669" s="6"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6"/>
@@ -9549,7 +9544,7 @@
       <c r="J670" s="7"/>
       <c r="K670" s="6"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6"/>
@@ -9562,7 +9557,7 @@
       <c r="J671" s="7"/>
       <c r="K671" s="6"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6"/>
@@ -9575,7 +9570,7 @@
       <c r="J672" s="7"/>
       <c r="K672" s="6"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="6"/>
@@ -9588,7 +9583,7 @@
       <c r="J673" s="7"/>
       <c r="K673" s="6"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="6"/>
@@ -9601,7 +9596,7 @@
       <c r="J674" s="7"/>
       <c r="K674" s="6"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="6"/>
@@ -9614,7 +9609,7 @@
       <c r="J675" s="7"/>
       <c r="K675" s="6"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="6"/>
@@ -9627,7 +9622,7 @@
       <c r="J676" s="7"/>
       <c r="K676" s="6"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="6"/>
@@ -9640,7 +9635,7 @@
       <c r="J677" s="7"/>
       <c r="K677" s="6"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="6"/>
@@ -9653,7 +9648,7 @@
       <c r="J678" s="7"/>
       <c r="K678" s="6"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="6"/>
@@ -9666,7 +9661,7 @@
       <c r="J679" s="7"/>
       <c r="K679" s="6"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="6"/>
@@ -9679,7 +9674,7 @@
       <c r="J680" s="7"/>
       <c r="K680" s="6"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="6"/>
@@ -9692,7 +9687,7 @@
       <c r="J681" s="7"/>
       <c r="K681" s="6"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="6"/>
@@ -9705,7 +9700,7 @@
       <c r="J682" s="7"/>
       <c r="K682" s="6"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="6"/>
@@ -9718,7 +9713,7 @@
       <c r="J683" s="7"/>
       <c r="K683" s="6"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="6"/>
@@ -9731,7 +9726,7 @@
       <c r="J684" s="7"/>
       <c r="K684" s="6"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="6"/>
@@ -9744,7 +9739,7 @@
       <c r="J685" s="7"/>
       <c r="K685" s="6"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="6"/>
@@ -9757,7 +9752,7 @@
       <c r="J686" s="7"/>
       <c r="K686" s="6"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="6"/>
@@ -9770,7 +9765,7 @@
       <c r="J687" s="7"/>
       <c r="K687" s="6"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="6"/>
@@ -9783,7 +9778,7 @@
       <c r="J688" s="7"/>
       <c r="K688" s="6"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="6"/>
@@ -9796,7 +9791,7 @@
       <c r="J689" s="7"/>
       <c r="K689" s="6"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="6"/>
@@ -9809,7 +9804,7 @@
       <c r="J690" s="7"/>
       <c r="K690" s="6"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="6"/>
@@ -9822,7 +9817,7 @@
       <c r="J691" s="7"/>
       <c r="K691" s="6"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="6"/>
@@ -9835,7 +9830,7 @@
       <c r="J692" s="7"/>
       <c r="K692" s="6"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="6"/>
@@ -9848,7 +9843,7 @@
       <c r="J693" s="7"/>
       <c r="K693" s="6"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="6"/>
@@ -9861,7 +9856,7 @@
       <c r="J694" s="7"/>
       <c r="K694" s="6"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="6"/>
@@ -9874,7 +9869,7 @@
       <c r="J695" s="7"/>
       <c r="K695" s="6"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="6"/>
@@ -9887,7 +9882,7 @@
       <c r="J696" s="7"/>
       <c r="K696" s="6"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="6"/>
@@ -9900,7 +9895,7 @@
       <c r="J697" s="7"/>
       <c r="K697" s="6"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="6"/>
@@ -9913,7 +9908,7 @@
       <c r="J698" s="7"/>
       <c r="K698" s="6"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="6"/>
@@ -9926,7 +9921,7 @@
       <c r="J699" s="7"/>
       <c r="K699" s="6"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="6"/>
@@ -9939,7 +9934,7 @@
       <c r="J700" s="7"/>
       <c r="K700" s="6"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="6"/>
@@ -9952,7 +9947,7 @@
       <c r="J701" s="7"/>
       <c r="K701" s="6"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="6"/>
@@ -9965,7 +9960,7 @@
       <c r="J702" s="7"/>
       <c r="K702" s="6"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="6"/>
@@ -9978,7 +9973,7 @@
       <c r="J703" s="7"/>
       <c r="K703" s="6"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="6"/>
@@ -9991,7 +9986,7 @@
       <c r="J704" s="7"/>
       <c r="K704" s="6"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="6"/>
@@ -10004,7 +9999,7 @@
       <c r="J705" s="7"/>
       <c r="K705" s="6"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="6"/>
@@ -10017,7 +10012,7 @@
       <c r="J706" s="7"/>
       <c r="K706" s="6"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="6"/>
@@ -10030,7 +10025,7 @@
       <c r="J707" s="7"/>
       <c r="K707" s="6"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="6"/>
@@ -10043,7 +10038,7 @@
       <c r="J708" s="7"/>
       <c r="K708" s="6"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="6"/>
@@ -10056,7 +10051,7 @@
       <c r="J709" s="7"/>
       <c r="K709" s="6"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6"/>
@@ -10069,7 +10064,7 @@
       <c r="J710" s="7"/>
       <c r="K710" s="6"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6"/>
@@ -10082,7 +10077,7 @@
       <c r="J711" s="7"/>
       <c r="K711" s="6"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6"/>
@@ -10095,7 +10090,7 @@
       <c r="J712" s="7"/>
       <c r="K712" s="6"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6"/>
@@ -10108,7 +10103,7 @@
       <c r="J713" s="7"/>
       <c r="K713" s="6"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
@@ -10121,7 +10116,7 @@
       <c r="J714" s="7"/>
       <c r="K714" s="6"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6"/>
@@ -10134,7 +10129,7 @@
       <c r="J715" s="7"/>
       <c r="K715" s="6"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
@@ -10147,7 +10142,7 @@
       <c r="J716" s="7"/>
       <c r="K716" s="6"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6"/>
@@ -10160,7 +10155,7 @@
       <c r="J717" s="7"/>
       <c r="K717" s="6"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
@@ -10173,7 +10168,7 @@
       <c r="J718" s="7"/>
       <c r="K718" s="6"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6"/>
@@ -10186,7 +10181,7 @@
       <c r="J719" s="7"/>
       <c r="K719" s="6"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
@@ -10199,7 +10194,7 @@
       <c r="J720" s="7"/>
       <c r="K720" s="6"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6"/>
@@ -10212,7 +10207,7 @@
       <c r="J721" s="7"/>
       <c r="K721" s="6"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
@@ -10225,7 +10220,7 @@
       <c r="J722" s="7"/>
       <c r="K722" s="6"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
@@ -10238,7 +10233,7 @@
       <c r="J723" s="7"/>
       <c r="K723" s="6"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="6"/>
@@ -10251,7 +10246,7 @@
       <c r="J724" s="7"/>
       <c r="K724" s="6"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="6"/>
@@ -10264,7 +10259,7 @@
       <c r="J725" s="7"/>
       <c r="K725" s="6"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="6"/>
@@ -10277,7 +10272,7 @@
       <c r="J726" s="7"/>
       <c r="K726" s="6"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="6"/>
@@ -10290,7 +10285,7 @@
       <c r="J727" s="7"/>
       <c r="K727" s="6"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="6"/>
@@ -10303,7 +10298,7 @@
       <c r="J728" s="7"/>
       <c r="K728" s="6"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6"/>
@@ -10316,7 +10311,7 @@
       <c r="J729" s="7"/>
       <c r="K729" s="6"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="6"/>
@@ -10329,7 +10324,7 @@
       <c r="J730" s="7"/>
       <c r="K730" s="6"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="6"/>
@@ -10342,7 +10337,7 @@
       <c r="J731" s="7"/>
       <c r="K731" s="6"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="6"/>
@@ -10355,7 +10350,7 @@
       <c r="J732" s="7"/>
       <c r="K732" s="6"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="6"/>
@@ -10368,7 +10363,7 @@
       <c r="J733" s="7"/>
       <c r="K733" s="6"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="6"/>
@@ -10381,7 +10376,7 @@
       <c r="J734" s="7"/>
       <c r="K734" s="6"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="6"/>
@@ -10394,7 +10389,7 @@
       <c r="J735" s="7"/>
       <c r="K735" s="6"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="6"/>
@@ -10407,7 +10402,7 @@
       <c r="J736" s="7"/>
       <c r="K736" s="6"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="6"/>
@@ -10420,7 +10415,7 @@
       <c r="J737" s="7"/>
       <c r="K737" s="6"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="6"/>
@@ -10433,7 +10428,7 @@
       <c r="J738" s="7"/>
       <c r="K738" s="6"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="6"/>
@@ -10446,7 +10441,7 @@
       <c r="J739" s="7"/>
       <c r="K739" s="6"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="6"/>
@@ -10459,7 +10454,7 @@
       <c r="J740" s="7"/>
       <c r="K740" s="6"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="6"/>
@@ -10472,7 +10467,7 @@
       <c r="J741" s="7"/>
       <c r="K741" s="6"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="6"/>
@@ -10485,7 +10480,7 @@
       <c r="J742" s="7"/>
       <c r="K742" s="6"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="6"/>
@@ -10498,7 +10493,7 @@
       <c r="J743" s="7"/>
       <c r="K743" s="6"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="6"/>
@@ -10511,7 +10506,7 @@
       <c r="J744" s="7"/>
       <c r="K744" s="6"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="6"/>
@@ -10524,7 +10519,7 @@
       <c r="J745" s="7"/>
       <c r="K745" s="6"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="6"/>
@@ -10537,7 +10532,7 @@
       <c r="J746" s="7"/>
       <c r="K746" s="6"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="6"/>
@@ -10550,7 +10545,7 @@
       <c r="J747" s="7"/>
       <c r="K747" s="6"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="6"/>
@@ -10563,7 +10558,7 @@
       <c r="J748" s="7"/>
       <c r="K748" s="6"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="6"/>
@@ -10576,7 +10571,7 @@
       <c r="J749" s="7"/>
       <c r="K749" s="6"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="6"/>
@@ -10589,7 +10584,7 @@
       <c r="J750" s="7"/>
       <c r="K750" s="6"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="6"/>
@@ -10602,7 +10597,7 @@
       <c r="J751" s="7"/>
       <c r="K751" s="6"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="6"/>
@@ -10615,7 +10610,7 @@
       <c r="J752" s="7"/>
       <c r="K752" s="6"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="6"/>
@@ -10628,7 +10623,7 @@
       <c r="J753" s="7"/>
       <c r="K753" s="6"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="6"/>
@@ -10641,7 +10636,7 @@
       <c r="J754" s="7"/>
       <c r="K754" s="6"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="6"/>
@@ -10654,7 +10649,7 @@
       <c r="J755" s="7"/>
       <c r="K755" s="6"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="6"/>
@@ -10667,7 +10662,7 @@
       <c r="J756" s="7"/>
       <c r="K756" s="6"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="6"/>
@@ -10680,7 +10675,7 @@
       <c r="J757" s="7"/>
       <c r="K757" s="6"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="6"/>
@@ -10693,7 +10688,7 @@
       <c r="J758" s="7"/>
       <c r="K758" s="6"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="6"/>
@@ -10706,7 +10701,7 @@
       <c r="J759" s="7"/>
       <c r="K759" s="6"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="6"/>
@@ -10719,7 +10714,7 @@
       <c r="J760" s="7"/>
       <c r="K760" s="6"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="6"/>
@@ -10732,7 +10727,7 @@
       <c r="J761" s="7"/>
       <c r="K761" s="6"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="6"/>
@@ -10745,7 +10740,7 @@
       <c r="J762" s="7"/>
       <c r="K762" s="6"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="6"/>
@@ -10758,7 +10753,7 @@
       <c r="J763" s="7"/>
       <c r="K763" s="6"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="6"/>
@@ -10771,7 +10766,7 @@
       <c r="J764" s="7"/>
       <c r="K764" s="6"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="6"/>
@@ -10784,7 +10779,7 @@
       <c r="J765" s="7"/>
       <c r="K765" s="6"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="6"/>
@@ -10797,7 +10792,7 @@
       <c r="J766" s="7"/>
       <c r="K766" s="6"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="6"/>
@@ -10810,7 +10805,7 @@
       <c r="J767" s="7"/>
       <c r="K767" s="6"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="6"/>
@@ -10823,7 +10818,7 @@
       <c r="J768" s="7"/>
       <c r="K768" s="6"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="6"/>
@@ -10836,7 +10831,7 @@
       <c r="J769" s="7"/>
       <c r="K769" s="6"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="6"/>
@@ -10849,7 +10844,7 @@
       <c r="J770" s="7"/>
       <c r="K770" s="6"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="6"/>
@@ -10862,7 +10857,7 @@
       <c r="J771" s="7"/>
       <c r="K771" s="6"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="6"/>
@@ -10875,7 +10870,7 @@
       <c r="J772" s="7"/>
       <c r="K772" s="6"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="6"/>
@@ -10888,7 +10883,7 @@
       <c r="J773" s="7"/>
       <c r="K773" s="6"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="6"/>
@@ -10901,7 +10896,7 @@
       <c r="J774" s="7"/>
       <c r="K774" s="6"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="6"/>
@@ -10914,7 +10909,7 @@
       <c r="J775" s="7"/>
       <c r="K775" s="6"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="6"/>
@@ -10927,7 +10922,7 @@
       <c r="J776" s="7"/>
       <c r="K776" s="6"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="6"/>
@@ -10940,7 +10935,7 @@
       <c r="J777" s="7"/>
       <c r="K777" s="6"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="6"/>
@@ -10953,7 +10948,7 @@
       <c r="J778" s="7"/>
       <c r="K778" s="6"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="6"/>
@@ -10966,7 +10961,7 @@
       <c r="J779" s="7"/>
       <c r="K779" s="6"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="6"/>
@@ -10979,7 +10974,7 @@
       <c r="J780" s="7"/>
       <c r="K780" s="6"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="6"/>
@@ -10992,7 +10987,7 @@
       <c r="J781" s="7"/>
       <c r="K781" s="6"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="6"/>
@@ -11005,7 +11000,7 @@
       <c r="J782" s="7"/>
       <c r="K782" s="6"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="6"/>
@@ -11018,7 +11013,7 @@
       <c r="J783" s="7"/>
       <c r="K783" s="6"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="6"/>
@@ -11031,7 +11026,7 @@
       <c r="J784" s="7"/>
       <c r="K784" s="6"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="6"/>
@@ -11044,7 +11039,7 @@
       <c r="J785" s="7"/>
       <c r="K785" s="6"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="6"/>
@@ -11057,7 +11052,7 @@
       <c r="J786" s="7"/>
       <c r="K786" s="6"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="6"/>
@@ -11070,7 +11065,7 @@
       <c r="J787" s="7"/>
       <c r="K787" s="6"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="6"/>
@@ -11083,7 +11078,7 @@
       <c r="J788" s="7"/>
       <c r="K788" s="6"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="6"/>
@@ -11096,7 +11091,7 @@
       <c r="J789" s="7"/>
       <c r="K789" s="6"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="6"/>
@@ -11109,7 +11104,7 @@
       <c r="J790" s="7"/>
       <c r="K790" s="6"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="6"/>
@@ -11122,7 +11117,7 @@
       <c r="J791" s="7"/>
       <c r="K791" s="6"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="6"/>
@@ -11135,7 +11130,7 @@
       <c r="J792" s="7"/>
       <c r="K792" s="6"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="6"/>
@@ -11148,7 +11143,7 @@
       <c r="J793" s="7"/>
       <c r="K793" s="6"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="6"/>
@@ -11161,7 +11156,7 @@
       <c r="J794" s="7"/>
       <c r="K794" s="6"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="6"/>
@@ -11174,7 +11169,7 @@
       <c r="J795" s="7"/>
       <c r="K795" s="6"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="6"/>
@@ -11187,7 +11182,7 @@
       <c r="J796" s="7"/>
       <c r="K796" s="6"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="6"/>
@@ -11200,7 +11195,7 @@
       <c r="J797" s="7"/>
       <c r="K797" s="6"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="6"/>
@@ -11213,7 +11208,7 @@
       <c r="J798" s="7"/>
       <c r="K798" s="6"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="6"/>
@@ -11226,7 +11221,7 @@
       <c r="J799" s="7"/>
       <c r="K799" s="6"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="6"/>
@@ -11239,7 +11234,7 @@
       <c r="J800" s="7"/>
       <c r="K800" s="6"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="6"/>
@@ -11252,7 +11247,7 @@
       <c r="J801" s="7"/>
       <c r="K801" s="6"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="6"/>
@@ -11265,7 +11260,7 @@
       <c r="J802" s="7"/>
       <c r="K802" s="6"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="6"/>
@@ -11278,7 +11273,7 @@
       <c r="J803" s="7"/>
       <c r="K803" s="6"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="6"/>
@@ -11291,7 +11286,7 @@
       <c r="J804" s="7"/>
       <c r="K804" s="6"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="6"/>
@@ -11304,7 +11299,7 @@
       <c r="J805" s="7"/>
       <c r="K805" s="6"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="6"/>
@@ -11317,7 +11312,7 @@
       <c r="J806" s="7"/>
       <c r="K806" s="6"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="6"/>
@@ -11330,7 +11325,7 @@
       <c r="J807" s="7"/>
       <c r="K807" s="6"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="6"/>
@@ -11343,7 +11338,7 @@
       <c r="J808" s="7"/>
       <c r="K808" s="6"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="6"/>
@@ -11356,7 +11351,7 @@
       <c r="J809" s="7"/>
       <c r="K809" s="6"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="6"/>
@@ -11369,7 +11364,7 @@
       <c r="J810" s="7"/>
       <c r="K810" s="6"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="6"/>
@@ -11382,7 +11377,7 @@
       <c r="J811" s="7"/>
       <c r="K811" s="6"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="6"/>
@@ -11395,7 +11390,7 @@
       <c r="J812" s="7"/>
       <c r="K812" s="6"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="6"/>
@@ -11408,7 +11403,7 @@
       <c r="J813" s="7"/>
       <c r="K813" s="6"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="6"/>
@@ -11421,7 +11416,7 @@
       <c r="J814" s="7"/>
       <c r="K814" s="6"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="6"/>
@@ -11434,7 +11429,7 @@
       <c r="J815" s="7"/>
       <c r="K815" s="6"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="6"/>
@@ -11447,7 +11442,7 @@
       <c r="J816" s="7"/>
       <c r="K816" s="6"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="6"/>
@@ -11460,7 +11455,7 @@
       <c r="J817" s="7"/>
       <c r="K817" s="6"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="6"/>
@@ -11473,7 +11468,7 @@
       <c r="J818" s="7"/>
       <c r="K818" s="6"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="6"/>
@@ -11486,7 +11481,7 @@
       <c r="J819" s="7"/>
       <c r="K819" s="6"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="6"/>
@@ -11499,7 +11494,7 @@
       <c r="J820" s="7"/>
       <c r="K820" s="6"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="6"/>
@@ -11512,7 +11507,7 @@
       <c r="J821" s="7"/>
       <c r="K821" s="6"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="6"/>
@@ -11525,7 +11520,7 @@
       <c r="J822" s="7"/>
       <c r="K822" s="6"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="6"/>
@@ -11538,7 +11533,7 @@
       <c r="J823" s="7"/>
       <c r="K823" s="6"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="6"/>
@@ -11551,7 +11546,7 @@
       <c r="J824" s="7"/>
       <c r="K824" s="6"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="6"/>
@@ -11564,7 +11559,7 @@
       <c r="J825" s="7"/>
       <c r="K825" s="6"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="6"/>
@@ -11577,7 +11572,7 @@
       <c r="J826" s="7"/>
       <c r="K826" s="6"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="6"/>
@@ -11590,7 +11585,7 @@
       <c r="J827" s="7"/>
       <c r="K827" s="6"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="6"/>
@@ -11603,7 +11598,7 @@
       <c r="J828" s="7"/>
       <c r="K828" s="6"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="6"/>
@@ -11616,7 +11611,7 @@
       <c r="J829" s="7"/>
       <c r="K829" s="6"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="6"/>
@@ -11629,7 +11624,7 @@
       <c r="J830" s="7"/>
       <c r="K830" s="6"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="6"/>
@@ -11642,7 +11637,7 @@
       <c r="J831" s="7"/>
       <c r="K831" s="6"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="6"/>
@@ -11655,7 +11650,7 @@
       <c r="J832" s="7"/>
       <c r="K832" s="6"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="6"/>
@@ -11668,7 +11663,7 @@
       <c r="J833" s="7"/>
       <c r="K833" s="6"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="6"/>
@@ -11681,7 +11676,7 @@
       <c r="J834" s="7"/>
       <c r="K834" s="6"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="6"/>
@@ -11694,7 +11689,7 @@
       <c r="J835" s="7"/>
       <c r="K835" s="6"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="6"/>
@@ -11707,7 +11702,7 @@
       <c r="J836" s="7"/>
       <c r="K836" s="6"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="6"/>
@@ -11720,7 +11715,7 @@
       <c r="J837" s="7"/>
       <c r="K837" s="6"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="6"/>
@@ -11733,7 +11728,7 @@
       <c r="J838" s="7"/>
       <c r="K838" s="6"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="6"/>
@@ -11746,7 +11741,7 @@
       <c r="J839" s="7"/>
       <c r="K839" s="6"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="6"/>
@@ -11759,7 +11754,7 @@
       <c r="J840" s="7"/>
       <c r="K840" s="6"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="6"/>
@@ -11772,7 +11767,7 @@
       <c r="J841" s="7"/>
       <c r="K841" s="6"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="6"/>
@@ -11785,7 +11780,7 @@
       <c r="J842" s="7"/>
       <c r="K842" s="6"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="6"/>
@@ -11798,7 +11793,7 @@
       <c r="J843" s="7"/>
       <c r="K843" s="6"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="6"/>
@@ -11811,7 +11806,7 @@
       <c r="J844" s="7"/>
       <c r="K844" s="6"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="6"/>
@@ -11824,7 +11819,7 @@
       <c r="J845" s="7"/>
       <c r="K845" s="6"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="6"/>
@@ -11837,7 +11832,7 @@
       <c r="J846" s="7"/>
       <c r="K846" s="6"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="6"/>
@@ -11850,7 +11845,7 @@
       <c r="J847" s="7"/>
       <c r="K847" s="6"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="6"/>
@@ -11863,7 +11858,7 @@
       <c r="J848" s="7"/>
       <c r="K848" s="6"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="6"/>
@@ -11876,7 +11871,7 @@
       <c r="J849" s="7"/>
       <c r="K849" s="6"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="6"/>
@@ -11889,7 +11884,7 @@
       <c r="J850" s="7"/>
       <c r="K850" s="6"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="6"/>
@@ -11902,7 +11897,7 @@
       <c r="J851" s="7"/>
       <c r="K851" s="6"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="6"/>
@@ -11915,7 +11910,7 @@
       <c r="J852" s="7"/>
       <c r="K852" s="6"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="6"/>
@@ -11928,7 +11923,7 @@
       <c r="J853" s="7"/>
       <c r="K853" s="6"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="6"/>
@@ -11941,7 +11936,7 @@
       <c r="J854" s="7"/>
       <c r="K854" s="6"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="6"/>
@@ -11954,7 +11949,7 @@
       <c r="J855" s="7"/>
       <c r="K855" s="6"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="6"/>
@@ -11967,7 +11962,7 @@
       <c r="J856" s="7"/>
       <c r="K856" s="6"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="6"/>
@@ -11980,7 +11975,7 @@
       <c r="J857" s="7"/>
       <c r="K857" s="6"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="6"/>
@@ -11993,7 +11988,7 @@
       <c r="J858" s="7"/>
       <c r="K858" s="6"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="6"/>
@@ -12006,7 +12001,7 @@
       <c r="J859" s="7"/>
       <c r="K859" s="6"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="6"/>
@@ -12019,7 +12014,7 @@
       <c r="J860" s="7"/>
       <c r="K860" s="6"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="6"/>
@@ -12032,7 +12027,7 @@
       <c r="J861" s="7"/>
       <c r="K861" s="6"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="6"/>
@@ -12045,7 +12040,7 @@
       <c r="J862" s="7"/>
       <c r="K862" s="6"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="6"/>
@@ -12058,7 +12053,7 @@
       <c r="J863" s="7"/>
       <c r="K863" s="6"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="6"/>
@@ -12071,7 +12066,7 @@
       <c r="J864" s="7"/>
       <c r="K864" s="6"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="6"/>
@@ -12084,7 +12079,7 @@
       <c r="J865" s="7"/>
       <c r="K865" s="6"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="6"/>
@@ -12097,7 +12092,7 @@
       <c r="J866" s="7"/>
       <c r="K866" s="6"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="6"/>
@@ -12110,7 +12105,7 @@
       <c r="J867" s="7"/>
       <c r="K867" s="6"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="6"/>
@@ -12123,7 +12118,7 @@
       <c r="J868" s="7"/>
       <c r="K868" s="6"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="6"/>
@@ -12136,7 +12131,7 @@
       <c r="J869" s="7"/>
       <c r="K869" s="6"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="6"/>
@@ -12149,7 +12144,7 @@
       <c r="J870" s="7"/>
       <c r="K870" s="6"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="6"/>
@@ -12162,7 +12157,7 @@
       <c r="J871" s="7"/>
       <c r="K871" s="6"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="6"/>
@@ -12175,7 +12170,7 @@
       <c r="J872" s="7"/>
       <c r="K872" s="6"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="6"/>
@@ -12188,7 +12183,7 @@
       <c r="J873" s="7"/>
       <c r="K873" s="6"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="6"/>
@@ -12201,7 +12196,7 @@
       <c r="J874" s="7"/>
       <c r="K874" s="6"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="6"/>
@@ -12214,7 +12209,7 @@
       <c r="J875" s="7"/>
       <c r="K875" s="6"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="6"/>
@@ -12227,7 +12222,7 @@
       <c r="J876" s="7"/>
       <c r="K876" s="6"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="6"/>
@@ -12240,7 +12235,7 @@
       <c r="J877" s="7"/>
       <c r="K877" s="6"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="6"/>
@@ -12253,7 +12248,7 @@
       <c r="J878" s="7"/>
       <c r="K878" s="6"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="6"/>
@@ -12266,7 +12261,7 @@
       <c r="J879" s="7"/>
       <c r="K879" s="6"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="6"/>
@@ -12279,7 +12274,7 @@
       <c r="J880" s="7"/>
       <c r="K880" s="6"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="6"/>
@@ -12292,7 +12287,7 @@
       <c r="J881" s="7"/>
       <c r="K881" s="6"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="6"/>
@@ -12305,7 +12300,7 @@
       <c r="J882" s="7"/>
       <c r="K882" s="6"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="6"/>
@@ -12318,7 +12313,7 @@
       <c r="J883" s="7"/>
       <c r="K883" s="6"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="6"/>
@@ -12331,7 +12326,7 @@
       <c r="J884" s="7"/>
       <c r="K884" s="6"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="6"/>
@@ -12344,7 +12339,7 @@
       <c r="J885" s="7"/>
       <c r="K885" s="6"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="6"/>
@@ -12357,7 +12352,7 @@
       <c r="J886" s="7"/>
       <c r="K886" s="6"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="6"/>
@@ -12370,7 +12365,7 @@
       <c r="J887" s="7"/>
       <c r="K887" s="6"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="6"/>
@@ -12383,7 +12378,7 @@
       <c r="J888" s="7"/>
       <c r="K888" s="6"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="6"/>
@@ -12396,7 +12391,7 @@
       <c r="J889" s="7"/>
       <c r="K889" s="6"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="6"/>
@@ -12409,7 +12404,7 @@
       <c r="J890" s="7"/>
       <c r="K890" s="6"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="6"/>
@@ -12422,7 +12417,7 @@
       <c r="J891" s="7"/>
       <c r="K891" s="6"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="6"/>
@@ -12435,7 +12430,7 @@
       <c r="J892" s="7"/>
       <c r="K892" s="6"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="6"/>
@@ -12448,7 +12443,7 @@
       <c r="J893" s="7"/>
       <c r="K893" s="6"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="6"/>
@@ -12461,7 +12456,7 @@
       <c r="J894" s="7"/>
       <c r="K894" s="6"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="6"/>
@@ -12474,7 +12469,7 @@
       <c r="J895" s="7"/>
       <c r="K895" s="6"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="6"/>
@@ -12487,7 +12482,7 @@
       <c r="J896" s="7"/>
       <c r="K896" s="6"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="6"/>
@@ -12500,7 +12495,7 @@
       <c r="J897" s="7"/>
       <c r="K897" s="6"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="6"/>
@@ -12513,7 +12508,7 @@
       <c r="J898" s="7"/>
       <c r="K898" s="6"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="6"/>
@@ -12526,7 +12521,7 @@
       <c r="J899" s="7"/>
       <c r="K899" s="6"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="6"/>
@@ -12539,7 +12534,7 @@
       <c r="J900" s="7"/>
       <c r="K900" s="6"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="6"/>
@@ -12552,7 +12547,7 @@
       <c r="J901" s="7"/>
       <c r="K901" s="6"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="6"/>
@@ -12565,7 +12560,7 @@
       <c r="J902" s="7"/>
       <c r="K902" s="6"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="6"/>
@@ -12578,7 +12573,7 @@
       <c r="J903" s="7"/>
       <c r="K903" s="6"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="6"/>
@@ -12591,7 +12586,7 @@
       <c r="J904" s="7"/>
       <c r="K904" s="6"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="6"/>
@@ -12604,7 +12599,7 @@
       <c r="J905" s="7"/>
       <c r="K905" s="6"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="6"/>
@@ -12617,7 +12612,7 @@
       <c r="J906" s="7"/>
       <c r="K906" s="6"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="6"/>
@@ -12630,7 +12625,7 @@
       <c r="J907" s="7"/>
       <c r="K907" s="6"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="6"/>
@@ -12643,7 +12638,7 @@
       <c r="J908" s="7"/>
       <c r="K908" s="6"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="6"/>
@@ -12656,7 +12651,7 @@
       <c r="J909" s="7"/>
       <c r="K909" s="6"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="6"/>
@@ -12669,7 +12664,7 @@
       <c r="J910" s="7"/>
       <c r="K910" s="6"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="6"/>
@@ -12682,7 +12677,7 @@
       <c r="J911" s="7"/>
       <c r="K911" s="6"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="6"/>
@@ -12695,7 +12690,7 @@
       <c r="J912" s="7"/>
       <c r="K912" s="6"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="6"/>
@@ -12708,7 +12703,7 @@
       <c r="J913" s="7"/>
       <c r="K913" s="6"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="6"/>
@@ -12721,7 +12716,7 @@
       <c r="J914" s="7"/>
       <c r="K914" s="6"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="6"/>
@@ -12734,7 +12729,7 @@
       <c r="J915" s="7"/>
       <c r="K915" s="6"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="6"/>
@@ -12747,7 +12742,7 @@
       <c r="J916" s="7"/>
       <c r="K916" s="6"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="6"/>
@@ -12760,7 +12755,7 @@
       <c r="J917" s="7"/>
       <c r="K917" s="6"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="6"/>
@@ -12773,7 +12768,7 @@
       <c r="J918" s="7"/>
       <c r="K918" s="6"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="6"/>
@@ -12786,7 +12781,7 @@
       <c r="J919" s="7"/>
       <c r="K919" s="6"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="6"/>
@@ -12799,7 +12794,7 @@
       <c r="J920" s="7"/>
       <c r="K920" s="6"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="6"/>
@@ -12812,7 +12807,7 @@
       <c r="J921" s="7"/>
       <c r="K921" s="6"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="6"/>
@@ -12825,7 +12820,7 @@
       <c r="J922" s="7"/>
       <c r="K922" s="6"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="6"/>
@@ -12838,7 +12833,7 @@
       <c r="J923" s="7"/>
       <c r="K923" s="6"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="6"/>
@@ -12851,7 +12846,7 @@
       <c r="J924" s="7"/>
       <c r="K924" s="6"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="6"/>
@@ -12864,7 +12859,7 @@
       <c r="J925" s="7"/>
       <c r="K925" s="6"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="6"/>
@@ -12877,7 +12872,7 @@
       <c r="J926" s="7"/>
       <c r="K926" s="6"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="6"/>
@@ -12890,7 +12885,7 @@
       <c r="J927" s="7"/>
       <c r="K927" s="6"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="6"/>
@@ -12903,7 +12898,7 @@
       <c r="J928" s="7"/>
       <c r="K928" s="6"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="6"/>
@@ -12916,7 +12911,7 @@
       <c r="J929" s="7"/>
       <c r="K929" s="6"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="6"/>
@@ -12929,7 +12924,7 @@
       <c r="J930" s="7"/>
       <c r="K930" s="6"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="6"/>
@@ -12942,7 +12937,7 @@
       <c r="J931" s="7"/>
       <c r="K931" s="6"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="6"/>
@@ -12955,7 +12950,7 @@
       <c r="J932" s="7"/>
       <c r="K932" s="6"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="6"/>
@@ -12968,7 +12963,7 @@
       <c r="J933" s="7"/>
       <c r="K933" s="6"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="6"/>
@@ -12981,7 +12976,7 @@
       <c r="J934" s="7"/>
       <c r="K934" s="6"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="6"/>
